--- a/5月.xlsx
+++ b/5月.xlsx
@@ -382,12 +382,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>金平</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>川上</t>
         </is>
       </c>
     </row>
@@ -412,12 +412,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>藤原</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>岡崎</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>藤原</t>
         </is>
       </c>
     </row>
@@ -442,12 +442,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>中林</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>川上</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中林</t>
         </is>
       </c>
     </row>
@@ -502,12 +502,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>岡崎</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>川上</t>
         </is>
       </c>
     </row>
@@ -547,12 +547,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>中道</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>北原</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中道</t>
         </is>
       </c>
     </row>
@@ -562,12 +562,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>金平</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>川上</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>金平</t>
         </is>
       </c>
     </row>

--- a/5月.xlsx
+++ b/5月.xlsx
@@ -360,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,85 +375,97 @@
       <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>川上</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>金平</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中道</t>
+          <t>景山</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>北原</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>金平</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>藤原</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>岡崎</t>
-        </is>
-      </c>
+          <t>金平</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>中林</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景山</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>北原</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上田</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中林</t>
+          <t>藤原</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川上</t>
+          <t>岡崎</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>金平</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -463,34 +475,49 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>中道</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>中林</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>中林</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>藤原</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金平</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>岡崎</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>岡崎</t>
+          <t>北原</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
+        <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>景山</t>
         </is>
@@ -498,52 +525,67 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>川上</t>
+          <t>上田</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>岡崎</t>
+          <t>中道</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>橋本</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>上田</t>
+          <t>中林</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>藤原</t>
+          <t>金平</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>北原</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中林</t>
+          <t>橋本</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>景山</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>岡崎</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -552,125 +594,170 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>北原</t>
+          <t>中林</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>岡崎</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>橋本</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>藤原</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>金平</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>川上</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>岡崎</t>
+          <t>景山</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>藤原</t>
+          <t>北原</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>川上</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>景山</t>
+          <t>中道</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中道</t>
+          <t>上田</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>金平</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>上田</t>
+          <t>景山</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>藤原</t>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>中林</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>景山</t>
+          <t>岡崎</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中林</t>
+          <t>北原</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>橋本</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>北原</t>
+          <t>藤原</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金平</t>
+          <t>中道</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>川上</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中林</t>
+          <t>上田</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>景山</t>
+          <t>金平</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>橋本</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>岡崎</t>
+          <t>橋本</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
+        <is>
+          <t>北原</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>川上</t>
         </is>
@@ -678,7 +765,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -687,7 +774,92 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>藤原</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>金平</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>中林</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>橋本</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>藤原</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>北原</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>岡崎</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>川上</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>橋本</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>岡崎</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>中道</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>藤原</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>上田</t>
         </is>
       </c>
     </row>
@@ -702,7 +874,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,6 +928,11 @@
           <t>景山</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>橋本</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -808,6 +985,11 @@
           <t>普通</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -816,31 +998,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -861,37 +1046,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>有</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>有</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>無</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>無</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>無</t>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>有</t>
         </is>
       </c>
     </row>
@@ -906,7 +1096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,16 +1150,21 @@
           <t>景山</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>橋本</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -978,33 +1173,36 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -1016,65 +1214,71 @@
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -1086,47 +1290,53 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1135,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -1150,24 +1360,27 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -1176,24 +1389,27 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1202,30 +1418,33 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1234,24 +1453,27 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
@@ -1260,33 +1482,36 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1295,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -1304,21 +1529,24 @@
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
       </c>
       <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1327,33 +1555,36 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1365,24 +1596,27 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1394,56 +1628,62 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -1455,30 +1695,33 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1487,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -1496,85 +1739,94 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1586,51 +1838,197 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
